--- a/config/excel/HeroEnchant.xlsx
+++ b/config/excel/HeroEnchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -133,22 +133,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,9 +148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +160,21 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,8 +199,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -216,31 +248,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,10 +262,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,15 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +565,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -587,6 +576,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -617,15 +617,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -647,17 +638,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,13 +664,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,156 +706,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,61 +874,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2076,20 +2076,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.9230769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.925" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
@@ -2097,9 +2097,9 @@
     <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="29" style="1" customWidth="1"/>
-    <col min="12" max="13" width="17.7692307692308" style="1" customWidth="1"/>
-    <col min="14" max="18" width="17.3846153846154" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.4615384615385" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17.7666666666667" style="1" customWidth="1"/>
+    <col min="14" max="18" width="17.3833333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.4583333333333" style="1" customWidth="1"/>
     <col min="20" max="16376" width="6" style="1" customWidth="1"/>
     <col min="16377" max="16384" width="6" style="1"/>
   </cols>
@@ -2165,23 +2165,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2193,52 +2193,52 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2247,23 +2247,23 @@
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:19">
       <c r="A6" s="3"/>
@@ -2274,27 +2274,27 @@
         <v>27</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:19">
+    <row r="7" ht="13.5" spans="1:19">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10">
@@ -2326,32 +2326,32 @@
         <v>1,2,3,4,5,6,7</v>
       </c>
       <c r="L7" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M7" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N7" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O7" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P7" s="10">
         <v>50</v>
       </c>
       <c r="Q7" s="10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R7" s="10">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S7" s="15" t="str">
         <f t="shared" ref="S7:S10" si="0">L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7&amp;","&amp;Q7&amp;","&amp;R7</f>
-        <v>10,20,30,40,50,60,70</v>
+        <v>50,50,50,50,50,50,50</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="1:19">
+    <row r="8" ht="13.5" spans="1:19">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="11">
@@ -2383,29 +2383,29 @@
         <v>10,11,12,13,14,15,16</v>
       </c>
       <c r="L8" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M8" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N8" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O8" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P8" s="10">
         <v>50</v>
       </c>
       <c r="Q8" s="10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R8" s="10">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>10,20,30,40,50,60,70</v>
+        <v>50,50,50,50,50,50,50</v>
       </c>
     </row>
     <row r="9" ht="16.15" customHeight="1" spans="1:19">
@@ -2440,29 +2440,29 @@
         <v>20,21,22,23,24,25,26</v>
       </c>
       <c r="L9" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M9" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N9" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O9" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P9" s="10">
         <v>50</v>
       </c>
       <c r="Q9" s="10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R9" s="10">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>10,20,30,40,50,60,70</v>
+        <v>50,50,50,50,50,50,50</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:19">
@@ -2497,29 +2497,29 @@
         <v>30,31,32,33,34,35,36</v>
       </c>
       <c r="L10" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M10" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N10" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O10" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P10" s="10">
         <v>50</v>
       </c>
       <c r="Q10" s="10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R10" s="10">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>10,20,30,40,50,60,70</v>
+        <v>50,50,50,50,50,50,50</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/HeroEnchant.xlsx
+++ b/config/excel/HeroEnchant.xlsx
@@ -110,8 +110,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -133,11 +133,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,38 +148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +178,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -230,14 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -247,25 +255,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,7 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +311,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,169 +473,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +618,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +638,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -649,17 +664,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,8 +691,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,25 +711,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2080,8 +2080,8 @@
   <sheetPr/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:R10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2440,29 +2440,29 @@
         <v>20,21,22,23,24,25,26</v>
       </c>
       <c r="L9" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M9" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N9" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O9" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P9" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R9" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>50,50,50,50,50,50,50</v>
+        <v>80,80,80,80,80,80,80</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:19">
@@ -2497,29 +2497,29 @@
         <v>30,31,32,33,34,35,36</v>
       </c>
       <c r="L10" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M10" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N10" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O10" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P10" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R10" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>50,50,50,50,50,50,50</v>
+        <v>80,80,80,80,80,80,80</v>
       </c>
     </row>
   </sheetData>
